--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value489.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value489.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8179826580391596</v>
+        <v>1.272198915481567</v>
       </c>
       <c r="B1">
-        <v>1.22067364728081</v>
+        <v>3.237287759780884</v>
       </c>
       <c r="C1">
-        <v>2.667056760884603</v>
+        <v>5.930813789367676</v>
       </c>
       <c r="D1">
-        <v>3.775433886083061</v>
+        <v>1.770566463470459</v>
       </c>
       <c r="E1">
-        <v>1.420775349217827</v>
+        <v>1.039753437042236</v>
       </c>
     </row>
   </sheetData>
